--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
@@ -55,7 +55,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">오퍼레이터 폴리닉과 스즈란은 라이타니엔에서 실종된 오퍼레이터 아트로의 회신을 오랜 시간 기다렸지만, 그런 그녀들에게 돌아온 건, 그곳을 덮친 재앙에 관한 소식이었다.
+    <t xml:space="preserve">오퍼레이터 폴리닉과 스즈란은 라이타니아에서 실종된 오퍼레이터 아트로의 회신을 오랜 시간 기다렸지만, 그런 그녀들에게 돌아온 건, 그곳을 덮친 재앙에 관한 소식이었다.
 </t>
   </si>
 </sst>

--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_st01.xlsx
@@ -55,7 +55,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">오퍼레이터 폴리닉과 스즈란은 라이타니아에서 실종된 오퍼레이터 아트로의 회신을 오랜 시간 기다렸지만, 그런 그녀들에게 돌아온 건, 그곳을 덮친 재앙에 관한 소식이었다.
+    <t xml:space="preserve">오퍼레이터 폴리닉과 스즈란은 라이타니엔에서 실종된 오퍼레이터 아트로의 회신을 오랜 시간 기다렸지만, 그런 그녀들에게 돌아온 건, 그곳을 덮친 재앙에 관한 소식이었다.
 </t>
   </si>
 </sst>
